--- a/output/CodeSystem-rtlsMessageEvents.xlsx
+++ b/output/CodeSystem-rtlsMessageEvents.xlsx
@@ -66,7 +66,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - Patient Administration Work Group</t>
+    <t>HL7 International / Patient Administration</t>
   </si>
   <si>
     <t>Contact</t>

--- a/output/CodeSystem-rtlsMessageEvents.xlsx
+++ b/output/CodeSystem-rtlsMessageEvents.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>null (http://hl7.org/Special/committees/pafm)</t>
+    <t>null (http://www.hl7.org/Special/committees/pafm)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -160,15 +160,6 @@
   </si>
   <si>
     <t>Used to describe when a specific tag has an updated location.</t>
-  </si>
-  <si>
-    <t>staff-duress</t>
-  </si>
-  <si>
-    <t>Staff Duress</t>
-  </si>
-  <si>
-    <t>Used when a user requires assistance pertaining to a security incident or threat; this function sends a distress signal that will notify nearby security members.</t>
   </si>
 </sst>
 </file>
@@ -479,7 +470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -541,20 +532,6 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/CodeSystem-rtlsMessageEvents.xlsx
+++ b/output/CodeSystem-rtlsMessageEvents.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>Used to describe when a specific tag has an updated location.</t>
+  </si>
+  <si>
+    <t>staff-duress</t>
+  </si>
+  <si>
+    <t>Staff Duress</t>
+  </si>
+  <si>
+    <t>Used to describe when a staff member is in duress.</t>
   </si>
 </sst>
 </file>
@@ -470,7 +479,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -532,6 +541,20 @@
         <v>48</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
